--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NH/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFD2E1F-509A-204D-B92F-5C95F1B48896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -116,10 +104,25 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -530,8 +535,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="5">
-        <v>44307</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,57 +547,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -615,139 +625,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-862631</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-862025</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-872103</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-869580</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-871026</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +773,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,12 +783,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -786,7 +796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -794,7 +804,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -826,7 +836,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -834,7 +844,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -842,7 +852,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -850,25 +860,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
